--- a/CATSMatlabTools/templates/GPShits.xlsx
+++ b/CATSMatlabTools/templates/GPShits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F449A6-EA4F-4188-A88E-E6C42ED5FF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DD9E2D-60A1-458F-9642-007A9AF78310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Local Time</t>
-  </si>
-  <si>
     <t>Tag on location</t>
   </si>
   <si>
     <t>Tag recovery (&lt; 5 minutes after tag detached)</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -412,18 +412,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5234375" customWidth="1"/>
-    <col min="4" max="4" width="27.26171875" customWidth="1"/>
+    <col min="1" max="1" width="18.53125" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44301.484826388885</v>
       </c>
@@ -446,10 +446,10 @@
         <v>-122.26911</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44301.544016203698</v>
       </c>
@@ -460,7 +460,7 @@
         <v>-122.25887</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
